--- a/Code/Results/Cases/Case_7_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_31/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.035147208961291</v>
+        <v>1.586789907437179</v>
       </c>
       <c r="C2">
-        <v>0.4657649596414331</v>
+        <v>0.1217255249858624</v>
       </c>
       <c r="D2">
-        <v>0.07057443895336846</v>
+        <v>0.0923900367957966</v>
       </c>
       <c r="E2">
-        <v>0.02354358947272495</v>
+        <v>0.02843834934291589</v>
       </c>
       <c r="F2">
-        <v>2.342747761914126</v>
+        <v>2.029825429790264</v>
       </c>
       <c r="G2">
-        <v>0.0008165352535882337</v>
+        <v>0.0008458441454658698</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7398731905293516</v>
+        <v>1.407114439204122</v>
       </c>
       <c r="L2">
-        <v>0.1482981304480475</v>
+        <v>0.146390549174555</v>
       </c>
       <c r="M2">
-        <v>0.4933386529490065</v>
+        <v>0.3013376473500031</v>
       </c>
       <c r="N2">
-        <v>1.679746721114128</v>
+        <v>2.38342575391512</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.64998381254884</v>
+        <v>1.402031139336515</v>
       </c>
       <c r="C3">
-        <v>0.4020042403701325</v>
+        <v>0.1067739462421571</v>
       </c>
       <c r="D3">
-        <v>0.07255642908552318</v>
+        <v>0.09464391217606671</v>
       </c>
       <c r="E3">
-        <v>0.02334355944319877</v>
+        <v>0.02796113666702915</v>
       </c>
       <c r="F3">
-        <v>2.14629818086091</v>
+        <v>1.90947540042707</v>
       </c>
       <c r="G3">
-        <v>0.0008252101932651563</v>
+        <v>0.0008526397914053939</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6412992229266905</v>
+        <v>1.229258617511789</v>
       </c>
       <c r="L3">
-        <v>0.134422856655533</v>
+        <v>0.1331502139452567</v>
       </c>
       <c r="M3">
-        <v>0.4334115212140119</v>
+        <v>0.2680933222894915</v>
       </c>
       <c r="N3">
-        <v>1.695351759706767</v>
+        <v>2.381268614893145</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.418132052721489</v>
+        <v>1.290641183946974</v>
       </c>
       <c r="C4">
-        <v>0.3633952496633981</v>
+        <v>0.09766890101889203</v>
       </c>
       <c r="D4">
-        <v>0.07385213325753526</v>
+        <v>0.09604140697880403</v>
       </c>
       <c r="E4">
-        <v>0.02322735360326855</v>
+        <v>0.0276932621585706</v>
       </c>
       <c r="F4">
-        <v>2.030206101543897</v>
+        <v>1.838422310048827</v>
       </c>
       <c r="G4">
-        <v>0.0008306799163710643</v>
+        <v>0.0008569388817110846</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5818701290146109</v>
+        <v>1.121804322954802</v>
       </c>
       <c r="L4">
-        <v>0.1261404115741769</v>
+        <v>0.1252188563582521</v>
       </c>
       <c r="M4">
-        <v>0.3973874603026744</v>
+        <v>0.2480796737311799</v>
       </c>
       <c r="N4">
-        <v>1.707063135557917</v>
+        <v>2.382018566971013</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.324678346346559</v>
+        <v>1.245714758205565</v>
       </c>
       <c r="C5">
-        <v>0.3477744086316648</v>
+        <v>0.0939732726915139</v>
       </c>
       <c r="D5">
-        <v>0.07439897717782173</v>
+        <v>0.09661449031611813</v>
       </c>
       <c r="E5">
-        <v>0.02318146029766854</v>
+        <v>0.02759019557569786</v>
       </c>
       <c r="F5">
-        <v>1.983929697583093</v>
+        <v>1.81013178936945</v>
       </c>
       <c r="G5">
-        <v>0.0008329465516115721</v>
+        <v>0.0008587235520850308</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5578922932603234</v>
+        <v>1.078407592237397</v>
       </c>
       <c r="L5">
-        <v>0.1228194449754128</v>
+        <v>0.1220327346127448</v>
       </c>
       <c r="M5">
-        <v>0.3828794670721223</v>
+        <v>0.2400149563665046</v>
       </c>
       <c r="N5">
-        <v>1.712340430556097</v>
+        <v>2.382821839379687</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.309218656625376</v>
+        <v>1.23828149201475</v>
       </c>
       <c r="C6">
-        <v>0.3451867410364287</v>
+        <v>0.09336039084790571</v>
       </c>
       <c r="D6">
-        <v>0.07449089123995734</v>
+        <v>0.09670987232781858</v>
       </c>
       <c r="E6">
-        <v>0.02317392254495876</v>
+        <v>0.02757344320579946</v>
       </c>
       <c r="F6">
-        <v>1.976304915632014</v>
+        <v>1.805472872568103</v>
       </c>
       <c r="G6">
-        <v>0.0008333252462443678</v>
+        <v>0.0008590219000073316</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5539243047069107</v>
+        <v>1.071223911060429</v>
       </c>
       <c r="L6">
-        <v>0.1222711245269039</v>
+        <v>0.1215063493586541</v>
       </c>
       <c r="M6">
-        <v>0.380480214751131</v>
+        <v>0.238681055495789</v>
       </c>
       <c r="N6">
-        <v>1.713246360857156</v>
+        <v>2.382984610186696</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.416867717379773</v>
+        <v>1.290033468096851</v>
       </c>
       <c r="C7">
-        <v>0.3631841547496322</v>
+        <v>0.09761900606204676</v>
       </c>
       <c r="D7">
-        <v>0.07385943313683896</v>
+        <v>0.09604912100891116</v>
       </c>
       <c r="E7">
-        <v>0.02322672900281209</v>
+        <v>0.02769184777843048</v>
       </c>
       <c r="F7">
-        <v>2.029577957671918</v>
+        <v>1.838038149215805</v>
       </c>
       <c r="G7">
-        <v>0.0008307103303748529</v>
+        <v>0.0008569628164612525</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5815458285837565</v>
+        <v>1.121217534625202</v>
       </c>
       <c r="L7">
-        <v>0.1260954112450037</v>
+        <v>0.1251757060186165</v>
       </c>
       <c r="M7">
-        <v>0.3971911312050764</v>
+        <v>0.2479705533602861</v>
       </c>
       <c r="N7">
-        <v>1.707132301775673</v>
+        <v>2.382027415640181</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.9012923267573</v>
+        <v>1.522627661848219</v>
       </c>
       <c r="C8">
-        <v>0.4436534671667118</v>
+        <v>0.1165519805570483</v>
       </c>
       <c r="D8">
-        <v>0.07124086842319244</v>
+        <v>0.09316445357614622</v>
       </c>
       <c r="E8">
-        <v>0.02347311800535046</v>
+        <v>0.02826844838020026</v>
       </c>
       <c r="F8">
-        <v>2.27400486799641</v>
+        <v>1.987707280473941</v>
       </c>
       <c r="G8">
-        <v>0.0008194976716737309</v>
+        <v>0.0008481616045378489</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7056351074942384</v>
+        <v>1.345396421317787</v>
       </c>
       <c r="L8">
-        <v>0.1434613432103689</v>
+        <v>0.1417817095673044</v>
       </c>
       <c r="M8">
-        <v>0.4725019003668862</v>
+        <v>0.2897865526982741</v>
       </c>
       <c r="N8">
-        <v>1.68466595338765</v>
+        <v>2.382236455237148</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.895036046613427</v>
+        <v>1.997504765246106</v>
       </c>
       <c r="C9">
-        <v>0.606910764879558</v>
+        <v>0.154483387059841</v>
       </c>
       <c r="D9">
-        <v>0.06678019041370575</v>
+        <v>0.08760756135626213</v>
       </c>
       <c r="E9">
-        <v>0.0240191930057847</v>
+        <v>0.02960969640908928</v>
       </c>
       <c r="F9">
-        <v>2.794600834280089</v>
+        <v>2.306241194549187</v>
       </c>
       <c r="G9">
-        <v>0.000798564376451976</v>
+        <v>0.0008318608069191681</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9594505970145093</v>
+        <v>1.801270985544136</v>
       </c>
       <c r="L9">
-        <v>0.1796667945696058</v>
+        <v>0.1761098262008431</v>
       </c>
       <c r="M9">
-        <v>0.6274035353824274</v>
+        <v>0.3754018871056743</v>
       </c>
       <c r="N9">
-        <v>1.659044410380815</v>
+        <v>2.400281267632224</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.662758843117103</v>
+        <v>2.361615177427609</v>
       </c>
       <c r="C10">
-        <v>0.7320252193674719</v>
+        <v>0.1831593249431052</v>
       </c>
       <c r="D10">
-        <v>0.06399330053039165</v>
+        <v>0.08357430491993689</v>
       </c>
       <c r="E10">
-        <v>0.02447575224733844</v>
+        <v>0.03074034998376263</v>
       </c>
       <c r="F10">
-        <v>3.210606728157472</v>
+        <v>2.559315344150576</v>
       </c>
       <c r="G10">
-        <v>0.0007836999705377458</v>
+        <v>0.0008203997807306287</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.155112381824893</v>
+        <v>2.149749709956041</v>
       </c>
       <c r="L10">
-        <v>0.2079999324947437</v>
+        <v>0.2026967328421136</v>
       </c>
       <c r="M10">
-        <v>0.747326455449894</v>
+        <v>0.441197905023877</v>
       </c>
       <c r="N10">
-        <v>1.653860913160628</v>
+        <v>2.426082026584822</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.023004775185882</v>
+        <v>2.53150153394796</v>
       </c>
       <c r="C11">
-        <v>0.7905448338916017</v>
+        <v>0.1964597991323274</v>
       </c>
       <c r="D11">
-        <v>0.06285327995854573</v>
+        <v>0.08174764214713903</v>
       </c>
       <c r="E11">
-        <v>0.02470012415436829</v>
+        <v>0.03129042134283111</v>
       </c>
       <c r="F11">
-        <v>3.409298575044971</v>
+        <v>2.679522203111574</v>
       </c>
       <c r="G11">
-        <v>0.0007770170042115042</v>
+        <v>0.0008152808057305352</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.246841236224341</v>
+        <v>2.312127054017736</v>
       </c>
       <c r="L11">
-        <v>0.2213739816946827</v>
+        <v>0.2151603820712467</v>
       </c>
       <c r="M11">
-        <v>0.8036533381162485</v>
+        <v>0.4719301122666906</v>
       </c>
       <c r="N11">
-        <v>1.65508828022439</v>
+        <v>2.440990461424946</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.161274450728001</v>
+        <v>2.596531136633928</v>
       </c>
       <c r="C12">
-        <v>0.8129818788961245</v>
+        <v>0.201540550595908</v>
       </c>
       <c r="D12">
-        <v>0.06244209846871129</v>
+        <v>0.08105688931455468</v>
       </c>
       <c r="E12">
-        <v>0.02478795855375582</v>
+        <v>0.03150424138855712</v>
       </c>
       <c r="F12">
-        <v>3.486105276528264</v>
+        <v>2.725859613693615</v>
       </c>
       <c r="G12">
-        <v>0.0007744945700349781</v>
+        <v>0.0008133544542861266</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.282037588255292</v>
+        <v>2.374252836674344</v>
       </c>
       <c r="L12">
-        <v>0.2265185190436227</v>
+        <v>0.2199397605123607</v>
       </c>
       <c r="M12">
-        <v>0.8252804212673155</v>
+        <v>0.4836986623737332</v>
       </c>
       <c r="N12">
-        <v>1.65612933855985</v>
+        <v>2.447133876091783</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.131408528347663</v>
+        <v>2.582493368252813</v>
       </c>
       <c r="C13">
-        <v>0.8081365366867033</v>
+        <v>0.2004442297848783</v>
       </c>
       <c r="D13">
-        <v>0.06252970317132167</v>
+        <v>0.0812056155669012</v>
       </c>
       <c r="E13">
-        <v>0.02476890582648617</v>
+        <v>0.03145793943072128</v>
       </c>
       <c r="F13">
-        <v>3.46949030136571</v>
+        <v>2.715842176204092</v>
       </c>
       <c r="G13">
-        <v>0.0007750375076194249</v>
+        <v>0.0008137688164352452</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.274435732368104</v>
+        <v>2.360843192005888</v>
       </c>
       <c r="L13">
-        <v>0.2254068108520642</v>
+        <v>0.2189076702644712</v>
       </c>
       <c r="M13">
-        <v>0.8206086839394189</v>
+        <v>0.4811580039440813</v>
       </c>
       <c r="N13">
-        <v>1.655878440625145</v>
+        <v>2.445787922702294</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.034341504818372</v>
+        <v>2.536837058305082</v>
       </c>
       <c r="C14">
-        <v>0.7923849048371778</v>
+        <v>0.1968768655244162</v>
       </c>
       <c r="D14">
-        <v>0.06281902701462982</v>
+        <v>0.08169079530368251</v>
       </c>
       <c r="E14">
-        <v>0.02470728983936388</v>
+        <v>0.03130789949740631</v>
       </c>
       <c r="F14">
-        <v>3.415584825036746</v>
+        <v>2.683317492379203</v>
       </c>
       <c r="G14">
-        <v>0.0007768093355961977</v>
+        <v>0.0008151220904709639</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.249727199004155</v>
+        <v>2.31722490666894</v>
       </c>
       <c r="L14">
-        <v>0.221795557197396</v>
+        <v>0.215552348557722</v>
       </c>
       <c r="M14">
-        <v>0.8054263900297585</v>
+        <v>0.4728955982093908</v>
       </c>
       <c r="N14">
-        <v>1.65516200149122</v>
+        <v>2.44148564930839</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.975135009825976</v>
+        <v>2.508964768407225</v>
       </c>
       <c r="C15">
-        <v>0.7827741233819268</v>
+        <v>0.1946977348389964</v>
       </c>
       <c r="D15">
-        <v>0.06299898816760674</v>
+        <v>0.08198810162068337</v>
       </c>
       <c r="E15">
-        <v>0.02466993735613432</v>
+        <v>0.0312167265386698</v>
       </c>
       <c r="F15">
-        <v>3.38277680056018</v>
+        <v>2.663504402633905</v>
       </c>
       <c r="G15">
-        <v>0.0007778956085708527</v>
+        <v>0.0008159525370033949</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.234654713107872</v>
+        <v>2.290593015161562</v>
       </c>
       <c r="L15">
-        <v>0.2195943170476369</v>
+        <v>0.2135050939608902</v>
       </c>
       <c r="M15">
-        <v>0.7961668679003608</v>
+        <v>0.467852180697804</v>
       </c>
       <c r="N15">
-        <v>1.654800154977721</v>
+        <v>2.438916543520207</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.639459634828825</v>
+        <v>2.35060540019515</v>
       </c>
       <c r="C16">
-        <v>0.7282369172890526</v>
+        <v>0.1822958653327191</v>
       </c>
       <c r="D16">
-        <v>0.06407055026622288</v>
+        <v>0.0836938274629766</v>
       </c>
       <c r="E16">
-        <v>0.02446146311745667</v>
+        <v>0.03070515233643789</v>
       </c>
       <c r="F16">
-        <v>3.197829011679318</v>
+        <v>2.55156903434704</v>
       </c>
       <c r="G16">
-        <v>0.0007841380512147429</v>
+        <v>0.0008207360965158628</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.149178160836243</v>
+        <v>2.139222395951464</v>
       </c>
       <c r="L16">
-        <v>0.2071365211168228</v>
+        <v>0.2018901799979034</v>
       </c>
       <c r="M16">
-        <v>0.7436845367471463</v>
+        <v>0.4392069135482686</v>
       </c>
       <c r="N16">
-        <v>1.653857852649438</v>
+        <v>2.425175023158488</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.436533359108523</v>
+        <v>2.254604312130709</v>
       </c>
       <c r="C17">
-        <v>0.6952219713883778</v>
+        <v>0.1747582059541912</v>
       </c>
       <c r="D17">
-        <v>0.06476206392056483</v>
+        <v>0.08474216588248318</v>
       </c>
       <c r="E17">
-        <v>0.0243381537635512</v>
+        <v>0.03040073003712607</v>
       </c>
       <c r="F17">
-        <v>3.086928876727143</v>
+        <v>2.484261040825245</v>
       </c>
       <c r="G17">
-        <v>0.0007879857264551769</v>
+        <v>0.0008236938711259396</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.097484533518241</v>
+        <v>2.047404600664038</v>
       </c>
       <c r="L17">
-        <v>0.1996252587097018</v>
+        <v>0.1948638330512864</v>
       </c>
       <c r="M17">
-        <v>0.7119709213824095</v>
+        <v>0.4218498814695408</v>
       </c>
       <c r="N17">
-        <v>1.654238753776013</v>
+        <v>2.417585777110901</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.320833262044914</v>
+        <v>2.199781477302849</v>
       </c>
       <c r="C18">
-        <v>0.6763805478820188</v>
+        <v>0.1704463188509209</v>
       </c>
       <c r="D18">
-        <v>0.06517168159407305</v>
+        <v>0.08534591550646198</v>
       </c>
       <c r="E18">
-        <v>0.02426876703669856</v>
+        <v>0.03022897264376567</v>
       </c>
       <c r="F18">
-        <v>3.024017459934015</v>
+        <v>2.446019920125252</v>
       </c>
       <c r="G18">
-        <v>0.0007902064429452478</v>
+        <v>0.0008254041182408736</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.068003215126311</v>
+        <v>1.994950612976453</v>
       </c>
       <c r="L18">
-        <v>0.1953499553444402</v>
+        <v>0.1908567776599455</v>
       </c>
       <c r="M18">
-        <v>0.6938941665008898</v>
+        <v>0.4119409653676271</v>
       </c>
       <c r="N18">
-        <v>1.654791225544685</v>
+        <v>2.41351641261177</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.281826340028374</v>
+        <v>2.181284672205777</v>
       </c>
       <c r="C19">
-        <v>0.6700252608792709</v>
+        <v>0.1689902248000834</v>
       </c>
       <c r="D19">
-        <v>0.06531235096065302</v>
+        <v>0.08555047352905287</v>
       </c>
       <c r="E19">
-        <v>0.02424552488933274</v>
+        <v>0.03017138085036564</v>
       </c>
       <c r="F19">
-        <v>3.002861199129796</v>
+        <v>2.433150808532872</v>
       </c>
       <c r="G19">
-        <v>0.0007909597387239324</v>
+        <v>0.0008259847707423607</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.058062576605593</v>
+        <v>1.977249547479801</v>
       </c>
       <c r="L19">
-        <v>0.1939098427058923</v>
+        <v>0.1895057607911639</v>
       </c>
       <c r="M19">
-        <v>0.6878006679032822</v>
+        <v>0.4085982999082063</v>
       </c>
       <c r="N19">
-        <v>1.655033823892907</v>
+        <v>2.41218818943517</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.45802803446702</v>
+        <v>2.264782371687204</v>
       </c>
       <c r="C20">
-        <v>0.6987208469626296</v>
+        <v>0.1755581117453744</v>
       </c>
       <c r="D20">
-        <v>0.06468720735995248</v>
+        <v>0.08463048988272881</v>
       </c>
       <c r="E20">
-        <v>0.02435111796692091</v>
+        <v>0.0304327881644646</v>
       </c>
       <c r="F20">
-        <v>3.0986423667959</v>
+        <v>2.491376572289838</v>
       </c>
       <c r="G20">
-        <v>0.0007875753656261872</v>
+        <v>0.0008233780886912634</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.102960907482483</v>
+        <v>2.057141220686248</v>
       </c>
       <c r="L20">
-        <v>0.2004201200518452</v>
+        <v>0.1956082027311652</v>
       </c>
       <c r="M20">
-        <v>0.7153296195195011</v>
+        <v>0.4236897593431337</v>
       </c>
       <c r="N20">
-        <v>1.654163288071203</v>
+        <v>2.418362765050119</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.062799838097078</v>
+        <v>2.550227767834087</v>
       </c>
       <c r="C21">
-        <v>0.7970036241327421</v>
+        <v>0.1979234256858433</v>
       </c>
       <c r="D21">
-        <v>0.06273346983338612</v>
+        <v>0.08154826166111917</v>
       </c>
       <c r="E21">
-        <v>0.02472530590319666</v>
+        <v>0.03135181682296384</v>
       </c>
       <c r="F21">
-        <v>3.431373862520786</v>
+        <v>2.69284785150063</v>
       </c>
       <c r="G21">
-        <v>0.0007762887092006791</v>
+        <v>0.0008147242857211255</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.256971593642177</v>
+        <v>2.330018661655828</v>
       </c>
       <c r="L21">
-        <v>0.2228540078564265</v>
+        <v>0.2165362128148871</v>
       </c>
       <c r="M21">
-        <v>0.8098773633014318</v>
+        <v>0.4753187804492143</v>
       </c>
       <c r="N21">
-        <v>1.655356271322432</v>
+        <v>2.442735462369313</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.46900286146581</v>
+        <v>2.74089394154106</v>
       </c>
       <c r="C22">
-        <v>0.8628776779705731</v>
+        <v>0.2128018347565614</v>
       </c>
       <c r="D22">
-        <v>0.06157745456809494</v>
+        <v>0.07953937717345916</v>
       </c>
       <c r="E22">
-        <v>0.02498686721955679</v>
+        <v>0.03198483481119219</v>
       </c>
       <c r="F22">
-        <v>3.658081046252136</v>
+        <v>2.829334094584937</v>
       </c>
       <c r="G22">
-        <v>0.0007689586339842138</v>
+        <v>0.0008091381965290513</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.360350647539235</v>
+        <v>2.512117769181174</v>
       </c>
       <c r="L22">
-        <v>0.2379883881133225</v>
+        <v>0.2305651989125437</v>
       </c>
       <c r="M22">
-        <v>0.8734266730271756</v>
+        <v>0.5098329793796452</v>
       </c>
       <c r="N22">
-        <v>1.659529473750951</v>
+        <v>2.461589390692467</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.251103770794543</v>
+        <v>2.638724834065272</v>
       </c>
       <c r="C23">
-        <v>0.8275523094775679</v>
+        <v>0.2048343703615672</v>
       </c>
       <c r="D23">
-        <v>0.06218257810562022</v>
+        <v>0.08061111660811804</v>
       </c>
       <c r="E23">
-        <v>0.02484553276365942</v>
+        <v>0.03164388227123638</v>
       </c>
       <c r="F23">
-        <v>3.536160731800067</v>
+        <v>2.756017297932289</v>
       </c>
       <c r="G23">
-        <v>0.0007728677170045942</v>
+        <v>0.0008121137661765643</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.304900592274251</v>
+        <v>2.414554457416216</v>
       </c>
       <c r="L23">
-        <v>0.2298638781017956</v>
+        <v>0.2230431663414123</v>
       </c>
       <c r="M23">
-        <v>0.8393329443677118</v>
+        <v>0.4913358751872465</v>
       </c>
       <c r="N23">
-        <v>1.656969324424878</v>
+        <v>2.451244040953384</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.44830730614234</v>
+        <v>2.260179726543186</v>
       </c>
       <c r="C24">
-        <v>0.697138574806786</v>
+        <v>0.1751964075636465</v>
       </c>
       <c r="D24">
-        <v>0.06472101261346452</v>
+        <v>0.08468097532956964</v>
       </c>
       <c r="E24">
-        <v>0.02434525219579853</v>
+        <v>0.03041828456227158</v>
       </c>
       <c r="F24">
-        <v>3.093344076462984</v>
+        <v>2.488158229306521</v>
       </c>
       <c r="G24">
-        <v>0.0007877608627015787</v>
+        <v>0.0008235208233331459</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.100484302496739</v>
+        <v>2.052738262829536</v>
       </c>
       <c r="L24">
-        <v>0.20006062999839</v>
+        <v>0.1952715725046659</v>
       </c>
       <c r="M24">
-        <v>0.7138106698554481</v>
+        <v>0.4228577340856319</v>
       </c>
       <c r="N24">
-        <v>1.654196371865154</v>
+        <v>2.418010576809138</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.620461519679054</v>
+        <v>1.866659587265758</v>
       </c>
       <c r="C25">
-        <v>0.5619841195440927</v>
+        <v>0.1441049250953483</v>
       </c>
       <c r="D25">
-        <v>0.06790722506935509</v>
+        <v>0.08910132765177003</v>
       </c>
       <c r="E25">
-        <v>0.02386313014963415</v>
+        <v>0.02922265848015648</v>
       </c>
       <c r="F25">
-        <v>2.648541715232284</v>
+        <v>2.217019194506705</v>
       </c>
       <c r="G25">
-        <v>0.0008041268287092925</v>
+        <v>0.0008361747989501455</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8893958676680995</v>
+        <v>1.675848677992235</v>
       </c>
       <c r="L25">
-        <v>0.1696012653471897</v>
+        <v>0.1666058557741934</v>
       </c>
       <c r="M25">
-        <v>0.5845603655814671</v>
+        <v>0.3517861130555957</v>
       </c>
       <c r="N25">
-        <v>1.663771285797552</v>
+        <v>2.393336856933075</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_31/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.586789907437179</v>
+        <v>1.02979891230504</v>
       </c>
       <c r="C2">
-        <v>0.1217255249858624</v>
+        <v>0.1256323118316232</v>
       </c>
       <c r="D2">
-        <v>0.0923900367957966</v>
+        <v>0.0630833323771256</v>
       </c>
       <c r="E2">
-        <v>0.02843834934291589</v>
+        <v>0.0459169861388613</v>
       </c>
       <c r="F2">
-        <v>2.029825429790264</v>
+        <v>0.8007878634325465</v>
       </c>
       <c r="G2">
-        <v>0.0008458441454658698</v>
+        <v>0.7239422384350576</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.005012560994995197</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.5318882682437334</v>
       </c>
       <c r="K2">
-        <v>1.407114439204122</v>
+        <v>0.566954127781834</v>
       </c>
       <c r="L2">
-        <v>0.146390549174555</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3013376473500031</v>
+        <v>0.9757722364556116</v>
       </c>
       <c r="N2">
-        <v>2.38342575391512</v>
+        <v>0.1739319616703554</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.2253049515426184</v>
+      </c>
+      <c r="P2">
+        <v>1.088694963398257</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.402031139336515</v>
+        <v>0.8970883671321133</v>
       </c>
       <c r="C3">
-        <v>0.1067739462421571</v>
+        <v>0.1129390203786897</v>
       </c>
       <c r="D3">
-        <v>0.09464391217606671</v>
+        <v>0.05928153279015191</v>
       </c>
       <c r="E3">
-        <v>0.02796113666702915</v>
+        <v>0.04256834010052302</v>
       </c>
       <c r="F3">
-        <v>1.90947540042707</v>
+        <v>0.7585220712536156</v>
       </c>
       <c r="G3">
-        <v>0.0008526397914053939</v>
+        <v>0.6903811232284767</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.00723119805255576</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.5214319246174313</v>
       </c>
       <c r="K3">
-        <v>1.229258617511789</v>
+        <v>0.5557195816020553</v>
       </c>
       <c r="L3">
-        <v>0.1331502139452567</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2680933222894915</v>
+        <v>0.8475607550715267</v>
       </c>
       <c r="N3">
-        <v>2.381268614893145</v>
+        <v>0.1547216245282996</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.1973848301956664</v>
+      </c>
+      <c r="P3">
+        <v>1.124472396598655</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.290641183946974</v>
+        <v>0.8158199005912365</v>
       </c>
       <c r="C4">
-        <v>0.09766890101889203</v>
+        <v>0.1051469533757441</v>
       </c>
       <c r="D4">
-        <v>0.09604140697880403</v>
+        <v>0.05692076739067176</v>
       </c>
       <c r="E4">
-        <v>0.0276932621585706</v>
+        <v>0.04050522594076256</v>
       </c>
       <c r="F4">
-        <v>1.838422310048827</v>
+        <v>0.7335366013484972</v>
       </c>
       <c r="G4">
-        <v>0.0008569388817110846</v>
+        <v>0.6706838647218802</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.008851024185890871</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.5155633755904461</v>
       </c>
       <c r="K4">
-        <v>1.121804322954802</v>
+        <v>0.5494086869281283</v>
       </c>
       <c r="L4">
-        <v>0.1252188563582521</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2480796737311799</v>
+        <v>0.769025440110596</v>
       </c>
       <c r="N4">
-        <v>2.382018566971013</v>
+        <v>0.1429236191923948</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.1802692646853643</v>
+      </c>
+      <c r="P4">
+        <v>1.147310377282384</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.245714758205565</v>
+        <v>0.782746466945639</v>
       </c>
       <c r="C5">
-        <v>0.0939732726915139</v>
+        <v>0.1019699152611864</v>
       </c>
       <c r="D5">
-        <v>0.09661449031611813</v>
+        <v>0.05595198111462807</v>
       </c>
       <c r="E5">
-        <v>0.02759019557569786</v>
+        <v>0.03966201011974668</v>
       </c>
       <c r="F5">
-        <v>1.81013178936945</v>
+        <v>0.7235854554087027</v>
       </c>
       <c r="G5">
-        <v>0.0008587235520850308</v>
+        <v>0.6628740990305317</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.009573116465649976</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.5133054004012507</v>
       </c>
       <c r="K5">
-        <v>1.078407592237397</v>
+        <v>0.5469787245267632</v>
       </c>
       <c r="L5">
-        <v>0.1220327346127448</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2400149563665046</v>
+        <v>0.737057393099974</v>
       </c>
       <c r="N5">
-        <v>2.382821839379687</v>
+        <v>0.1381133882847507</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.1732995482777682</v>
+      </c>
+      <c r="P5">
+        <v>1.156831016788001</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.23828149201475</v>
+        <v>0.7772570234666603</v>
       </c>
       <c r="C6">
-        <v>0.09336039084790571</v>
+        <v>0.1014422073287164</v>
       </c>
       <c r="D6">
-        <v>0.09670987232781858</v>
+        <v>0.05579070393308072</v>
       </c>
       <c r="E6">
-        <v>0.02757344320579946</v>
+        <v>0.0395218247873288</v>
       </c>
       <c r="F6">
-        <v>1.805472872568103</v>
+        <v>0.7219466574419968</v>
       </c>
       <c r="G6">
-        <v>0.0008590219000073316</v>
+        <v>0.6615900707149081</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.009696684919803425</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.5129383807083485</v>
       </c>
       <c r="K6">
-        <v>1.071223911060429</v>
+        <v>0.5465836275599472</v>
       </c>
       <c r="L6">
-        <v>0.1215063493586541</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.238681055495789</v>
+        <v>0.7317509620877161</v>
       </c>
       <c r="N6">
-        <v>2.382984610186696</v>
+        <v>0.1373144556223309</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.1721424814123189</v>
+      </c>
+      <c r="P6">
+        <v>1.158424695930638</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.290033468096851</v>
+        <v>0.815373695229141</v>
       </c>
       <c r="C7">
-        <v>0.09761900606204676</v>
+        <v>0.105104116372317</v>
       </c>
       <c r="D7">
-        <v>0.09604912100891116</v>
+        <v>0.05690772948690537</v>
       </c>
       <c r="E7">
-        <v>0.02769184777843048</v>
+        <v>0.04049386499660912</v>
       </c>
       <c r="F7">
-        <v>1.838038149215805</v>
+        <v>0.7334014786613992</v>
       </c>
       <c r="G7">
-        <v>0.0008569628164612525</v>
+        <v>0.6705776757660971</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.008860515124767002</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.5155323899085147</v>
       </c>
       <c r="K7">
-        <v>1.121217534625202</v>
+        <v>0.5493753491137809</v>
       </c>
       <c r="L7">
-        <v>0.1251757060186165</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2479705533602861</v>
+        <v>0.7685941776923926</v>
       </c>
       <c r="N7">
-        <v>2.382027415640181</v>
+        <v>0.1428587589035217</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.1801752507868954</v>
+      </c>
+      <c r="P7">
+        <v>1.147437915897836</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.522627661848219</v>
+        <v>0.9839890258053003</v>
       </c>
       <c r="C8">
-        <v>0.1165519805570483</v>
+        <v>0.121254001373643</v>
       </c>
       <c r="D8">
-        <v>0.09316445357614622</v>
+        <v>0.06177789427620439</v>
       </c>
       <c r="E8">
-        <v>0.02826844838020026</v>
+        <v>0.0447633932172451</v>
       </c>
       <c r="F8">
-        <v>1.987707280473941</v>
+        <v>0.7860065905602056</v>
       </c>
       <c r="G8">
-        <v>0.0008481616045378489</v>
+        <v>0.7121744329110271</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.005722390015666656</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.5281651972614867</v>
       </c>
       <c r="K8">
-        <v>1.345396421317787</v>
+        <v>0.5629549734169004</v>
       </c>
       <c r="L8">
-        <v>0.1417817095673044</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2897865526982741</v>
+        <v>0.9315190724604179</v>
       </c>
       <c r="N8">
-        <v>2.382236455237148</v>
+        <v>0.1673077327864831</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.2156712042701443</v>
+      </c>
+      <c r="P8">
+        <v>1.100847330999528</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.997504765246106</v>
+        <v>1.316865441899267</v>
       </c>
       <c r="C9">
-        <v>0.154483387059841</v>
+        <v>0.15303998567218</v>
       </c>
       <c r="D9">
-        <v>0.08760756135626213</v>
+        <v>0.07112388828423377</v>
       </c>
       <c r="E9">
-        <v>0.02960969640908928</v>
+        <v>0.05311414211350751</v>
       </c>
       <c r="F9">
-        <v>2.306241194549187</v>
+        <v>0.897414243607912</v>
       </c>
       <c r="G9">
-        <v>0.0008318608069191681</v>
+        <v>0.8015173630957833</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.001741869377876681</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.5575646622178425</v>
       </c>
       <c r="K9">
-        <v>1.801270985544136</v>
+        <v>0.5945228444306991</v>
       </c>
       <c r="L9">
-        <v>0.1761098262008431</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3754018871056743</v>
+        <v>1.253052539366479</v>
       </c>
       <c r="N9">
-        <v>2.400281267632224</v>
+        <v>0.2153148088582242</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.2855906071966743</v>
+      </c>
+      <c r="P9">
+        <v>1.01662002470367</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.361615177427609</v>
+        <v>1.554493350550956</v>
       </c>
       <c r="C10">
-        <v>0.1831593249431052</v>
+        <v>0.1786117659139137</v>
       </c>
       <c r="D10">
-        <v>0.08357430491993689</v>
+        <v>0.07870222693637174</v>
       </c>
       <c r="E10">
-        <v>0.03074034998376263</v>
+        <v>0.05694129126657721</v>
       </c>
       <c r="F10">
-        <v>2.559315344150576</v>
+        <v>0.9744101977931479</v>
       </c>
       <c r="G10">
-        <v>0.0008203997807306287</v>
+        <v>0.8610934904719016</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0005661977572097854</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.5765299435808799</v>
       </c>
       <c r="K10">
-        <v>2.149749709956041</v>
+        <v>0.612893106068789</v>
       </c>
       <c r="L10">
-        <v>0.2026967328421136</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.441197905023877</v>
+        <v>1.488639166126404</v>
       </c>
       <c r="N10">
-        <v>2.426082026584822</v>
+        <v>0.2390391824450546</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.3303311474142419</v>
+      </c>
+      <c r="P10">
+        <v>0.9537120202014933</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.53150153394796</v>
+        <v>1.583877258445511</v>
       </c>
       <c r="C11">
-        <v>0.1964597991323274</v>
+        <v>0.2089157485440012</v>
       </c>
       <c r="D11">
-        <v>0.08174764214713903</v>
+        <v>0.08994159664915458</v>
       </c>
       <c r="E11">
-        <v>0.03129042134283111</v>
+        <v>0.04327630726882781</v>
       </c>
       <c r="F11">
-        <v>2.679522203111574</v>
+        <v>0.9184143075175228</v>
       </c>
       <c r="G11">
-        <v>0.0008152808057305352</v>
+        <v>0.7904217256208739</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01911523658284864</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.5361392899592943</v>
       </c>
       <c r="K11">
-        <v>2.312127054017736</v>
+        <v>0.5525333830289085</v>
       </c>
       <c r="L11">
-        <v>0.2151603820712467</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4719301122666906</v>
+        <v>1.572436134267917</v>
       </c>
       <c r="N11">
-        <v>2.440990461424946</v>
+        <v>0.1599327145996625</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.2920817676397505</v>
+      </c>
+      <c r="P11">
+        <v>0.8834841420078234</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.596531136633928</v>
+        <v>1.557312136623466</v>
       </c>
       <c r="C12">
-        <v>0.201540550595908</v>
+        <v>0.2307823286683828</v>
       </c>
       <c r="D12">
-        <v>0.08105688931455468</v>
+        <v>0.098667896850273</v>
       </c>
       <c r="E12">
-        <v>0.03150424138855712</v>
+        <v>0.03760941332931123</v>
       </c>
       <c r="F12">
-        <v>2.725859613693615</v>
+        <v>0.8552753852537904</v>
       </c>
       <c r="G12">
-        <v>0.0008133544542861266</v>
+        <v>0.7198226272953008</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05786766681186606</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.4986343062830088</v>
       </c>
       <c r="K12">
-        <v>2.374252836674344</v>
+        <v>0.4999333861858801</v>
       </c>
       <c r="L12">
-        <v>0.2199397605123607</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4836986623737332</v>
+        <v>1.592720601567237</v>
       </c>
       <c r="N12">
-        <v>2.447133876091783</v>
+        <v>0.1040196314545909</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.2526497177911367</v>
+      </c>
+      <c r="P12">
+        <v>0.8457457135057602</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.582493368252813</v>
+        <v>1.486296131162078</v>
       </c>
       <c r="C13">
-        <v>0.2004442297848783</v>
+        <v>0.2471270555089689</v>
       </c>
       <c r="D13">
-        <v>0.0812056155669012</v>
+        <v>0.1058450213670952</v>
       </c>
       <c r="E13">
-        <v>0.03145793943072128</v>
+        <v>0.03764430857574919</v>
       </c>
       <c r="F13">
-        <v>2.715842176204092</v>
+        <v>0.7828098396229137</v>
       </c>
       <c r="G13">
-        <v>0.0008137688164352452</v>
+        <v>0.6450406529745436</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1138025325378607</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.4610457654864319</v>
       </c>
       <c r="K13">
-        <v>2.360843192005888</v>
+        <v>0.4501289388185157</v>
       </c>
       <c r="L13">
-        <v>0.2189076702644712</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4811580039440813</v>
+        <v>1.564998497068018</v>
       </c>
       <c r="N13">
-        <v>2.445787922702294</v>
+        <v>0.06286686187505097</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.2103148904157308</v>
+      </c>
+      <c r="P13">
+        <v>0.8297078520077548</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.536837058305082</v>
+        <v>1.416857722384236</v>
       </c>
       <c r="C14">
-        <v>0.1968768655244162</v>
+        <v>0.2561319134427151</v>
       </c>
       <c r="D14">
-        <v>0.08169079530368251</v>
+        <v>0.1101969022670701</v>
       </c>
       <c r="E14">
-        <v>0.03130789949740631</v>
+        <v>0.04107843400349598</v>
       </c>
       <c r="F14">
-        <v>2.683317492379203</v>
+        <v>0.7284072601084119</v>
       </c>
       <c r="G14">
-        <v>0.0008151220904709639</v>
+        <v>0.5914999360578861</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1633418257619041</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.4350004459017072</v>
       </c>
       <c r="K14">
-        <v>2.31722490666894</v>
+        <v>0.4171015192326202</v>
       </c>
       <c r="L14">
-        <v>0.215552348557722</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4728955982093908</v>
+        <v>1.523969060858491</v>
       </c>
       <c r="N14">
-        <v>2.44148564930839</v>
+        <v>0.04306451337156858</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.1799901717430821</v>
+      </c>
+      <c r="P14">
+        <v>0.8290982249600338</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.508964768407225</v>
+        <v>1.390745428495393</v>
       </c>
       <c r="C15">
-        <v>0.1946977348389964</v>
+        <v>0.2568797118669153</v>
       </c>
       <c r="D15">
-        <v>0.08198810162068337</v>
+        <v>0.1107942751933493</v>
       </c>
       <c r="E15">
-        <v>0.0312167265386698</v>
+        <v>0.04224069148435028</v>
       </c>
       <c r="F15">
-        <v>2.663504402633905</v>
+        <v>0.7131982758144559</v>
       </c>
       <c r="G15">
-        <v>0.0008159525370033949</v>
+        <v>0.5774336700340967</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1759446317200712</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.4285940341280678</v>
       </c>
       <c r="K15">
-        <v>2.290593015161562</v>
+        <v>0.4094042464353009</v>
       </c>
       <c r="L15">
-        <v>0.2135050939608902</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.467852180697804</v>
+        <v>1.503857067795678</v>
       </c>
       <c r="N15">
-        <v>2.438916543520207</v>
+        <v>0.03936824861320609</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.1717665863280082</v>
+      </c>
+      <c r="P15">
+        <v>0.8323690602091398</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.35060540019515</v>
+        <v>1.304374140517666</v>
       </c>
       <c r="C16">
-        <v>0.1822958653327191</v>
+        <v>0.2417826452260385</v>
       </c>
       <c r="D16">
-        <v>0.0836938274629766</v>
+        <v>0.1057503219140443</v>
       </c>
       <c r="E16">
-        <v>0.03070515233643789</v>
+        <v>0.04051426441944983</v>
       </c>
       <c r="F16">
-        <v>2.55156903434704</v>
+        <v>0.695003878355088</v>
       </c>
       <c r="G16">
-        <v>0.0008207360965158628</v>
+        <v>0.5672830182022892</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1637352152993969</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.4280195583354214</v>
       </c>
       <c r="K16">
-        <v>2.139222395951464</v>
+        <v>0.4117092480950504</v>
       </c>
       <c r="L16">
-        <v>0.2018901799979034</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4392069135482686</v>
+        <v>1.408063995942115</v>
       </c>
       <c r="N16">
-        <v>2.425175023158488</v>
+        <v>0.03886955370234801</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.1624044258119604</v>
+      </c>
+      <c r="P16">
+        <v>0.8598925282931535</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.254604312130709</v>
+        <v>1.274943455982992</v>
       </c>
       <c r="C17">
-        <v>0.1747582059541912</v>
+        <v>0.2254424896041911</v>
       </c>
       <c r="D17">
-        <v>0.08474216588248318</v>
+        <v>0.09957075198215648</v>
       </c>
       <c r="E17">
-        <v>0.03040073003712607</v>
+        <v>0.03679871470784679</v>
       </c>
       <c r="F17">
-        <v>2.484261040825245</v>
+        <v>0.7099478532486287</v>
       </c>
       <c r="G17">
-        <v>0.0008236938711259396</v>
+        <v>0.5878151843020873</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1262787456704615</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.4414122920154711</v>
       </c>
       <c r="K17">
-        <v>2.047404600664038</v>
+        <v>0.4308630095296664</v>
       </c>
       <c r="L17">
-        <v>0.1948638330512864</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4218498814695408</v>
+        <v>1.356575151665965</v>
       </c>
       <c r="N17">
-        <v>2.417585777110901</v>
+        <v>0.04735607937656994</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.1708938975795675</v>
+      </c>
+      <c r="P17">
+        <v>0.8812758609355089</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.199781477302849</v>
+        <v>1.290756640143144</v>
       </c>
       <c r="C18">
-        <v>0.1704463188509209</v>
+        <v>0.206844776492062</v>
       </c>
       <c r="D18">
-        <v>0.08534591550646198</v>
+        <v>0.09206310032932663</v>
       </c>
       <c r="E18">
-        <v>0.03022897264376567</v>
+        <v>0.03416096624833065</v>
       </c>
       <c r="F18">
-        <v>2.446019920125252</v>
+        <v>0.7554963770166054</v>
       </c>
       <c r="G18">
-        <v>0.0008254041182408736</v>
+        <v>0.6381138123060737</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.0735000926343119</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.4687543792631601</v>
       </c>
       <c r="K18">
-        <v>1.994950612976453</v>
+        <v>0.4679574943436791</v>
       </c>
       <c r="L18">
-        <v>0.1908567776599455</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4119409653676271</v>
+        <v>1.33690151704343</v>
       </c>
       <c r="N18">
-        <v>2.41351641261177</v>
+        <v>0.07243161385165564</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.1970421387960855</v>
+      </c>
+      <c r="P18">
+        <v>0.9037615894123991</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.181284672205777</v>
+        <v>1.341928947472951</v>
       </c>
       <c r="C19">
-        <v>0.1689902248000834</v>
+        <v>0.1887109744840103</v>
       </c>
       <c r="D19">
-        <v>0.08555047352905287</v>
+        <v>0.08449708187121985</v>
       </c>
       <c r="E19">
-        <v>0.03017138085036564</v>
+        <v>0.03735150586164515</v>
       </c>
       <c r="F19">
-        <v>2.433150808532872</v>
+        <v>0.8236829442471816</v>
       </c>
       <c r="G19">
-        <v>0.0008259847707423607</v>
+        <v>0.7109411643986903</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02795121508070508</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.5062831614979331</v>
       </c>
       <c r="K19">
-        <v>1.977249547479801</v>
+        <v>0.5190590240132096</v>
       </c>
       <c r="L19">
-        <v>0.1895057607911639</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4085982999082063</v>
+        <v>1.344046591847757</v>
       </c>
       <c r="N19">
-        <v>2.41218818943517</v>
+        <v>0.1210170063841147</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.237769981938122</v>
+      </c>
+      <c r="P19">
+        <v>0.9313310169198861</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.264782371687204</v>
+        <v>1.491571022047708</v>
       </c>
       <c r="C20">
-        <v>0.1755581117453744</v>
+        <v>0.1719503698807046</v>
       </c>
       <c r="D20">
-        <v>0.08463048988272881</v>
+        <v>0.07675045134516978</v>
       </c>
       <c r="E20">
-        <v>0.0304327881644646</v>
+        <v>0.05582838421737257</v>
       </c>
       <c r="F20">
-        <v>2.491376572289838</v>
+        <v>0.9533140702348533</v>
       </c>
       <c r="G20">
-        <v>0.0008233780886912634</v>
+        <v>0.8445571783599348</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0007579816870997291</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.5710749410545759</v>
       </c>
       <c r="K20">
-        <v>2.057141220686248</v>
+        <v>0.6074744482436358</v>
       </c>
       <c r="L20">
-        <v>0.1956082027311652</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4236897593431337</v>
+        <v>1.426501995664012</v>
       </c>
       <c r="N20">
-        <v>2.418362765050119</v>
+        <v>0.2323077874467714</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.3182768924745076</v>
+      </c>
+      <c r="P20">
+        <v>0.9696142559139354</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.550227767834087</v>
+        <v>1.68877580012267</v>
       </c>
       <c r="C21">
-        <v>0.1979234256858433</v>
+        <v>0.18861488893684</v>
       </c>
       <c r="D21">
-        <v>0.08154826166111917</v>
+        <v>0.08125447753906911</v>
       </c>
       <c r="E21">
-        <v>0.03135181682296384</v>
+        <v>0.06242419136127353</v>
       </c>
       <c r="F21">
-        <v>2.69284785150063</v>
+        <v>1.031136256581618</v>
       </c>
       <c r="G21">
-        <v>0.0008147242857211255</v>
+        <v>0.9102494623491992</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>4.317090894723208E-05</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.5957532916829251</v>
       </c>
       <c r="K21">
-        <v>2.330018661655828</v>
+        <v>0.6355294332388155</v>
       </c>
       <c r="L21">
-        <v>0.2165362128148871</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4753187804492143</v>
+        <v>1.61237100463066</v>
       </c>
       <c r="N21">
-        <v>2.442735462369313</v>
+        <v>0.2687082581265372</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.3635053762012674</v>
+      </c>
+      <c r="P21">
+        <v>0.9318091575546852</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.74089394154106</v>
+        <v>1.813706221241858</v>
       </c>
       <c r="C22">
-        <v>0.2128018347565614</v>
+        <v>0.2006095063882185</v>
       </c>
       <c r="D22">
-        <v>0.07953937717345916</v>
+        <v>0.0845987623880049</v>
       </c>
       <c r="E22">
-        <v>0.03198483481119219</v>
+        <v>0.06556083934373902</v>
       </c>
       <c r="F22">
-        <v>2.829334094584937</v>
+        <v>1.077888309304853</v>
       </c>
       <c r="G22">
-        <v>0.0008091381965290513</v>
+        <v>0.9485525869860538</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.282422693111741E-05</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.6096197230979641</v>
       </c>
       <c r="K22">
-        <v>2.512117769181174</v>
+        <v>0.6504253063533483</v>
       </c>
       <c r="L22">
-        <v>0.2305651989125437</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5098329793796452</v>
+        <v>1.733126016329948</v>
       </c>
       <c r="N22">
-        <v>2.461589390692467</v>
+        <v>0.2866081836024961</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.3896352753509404</v>
+      </c>
+      <c r="P22">
+        <v>0.9051286349474026</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.638724834065272</v>
+        <v>1.746964641068672</v>
       </c>
       <c r="C23">
-        <v>0.2048343703615672</v>
+        <v>0.1941981298421354</v>
       </c>
       <c r="D23">
-        <v>0.08061111660811804</v>
+        <v>0.08281547829754032</v>
       </c>
       <c r="E23">
-        <v>0.03164388227123638</v>
+        <v>0.06388424523575154</v>
       </c>
       <c r="F23">
-        <v>2.756017297932289</v>
+        <v>1.052805490115148</v>
       </c>
       <c r="G23">
-        <v>0.0008121137661765643</v>
+        <v>0.9279862462258421</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.587520172874335E-06</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.6021520819661816</v>
       </c>
       <c r="K23">
-        <v>2.414554457416216</v>
+        <v>0.6424027815503877</v>
       </c>
       <c r="L23">
-        <v>0.2230431663414123</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4913358751872465</v>
+        <v>1.668610827206976</v>
       </c>
       <c r="N23">
-        <v>2.451244040953384</v>
+        <v>0.2770472555446446</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.375678467152845</v>
+      </c>
+      <c r="P23">
+        <v>0.9192779610939752</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.260179726543186</v>
+        <v>1.495501877103976</v>
       </c>
       <c r="C24">
-        <v>0.1751964075636465</v>
+        <v>0.1701077233069554</v>
       </c>
       <c r="D24">
-        <v>0.08468097532956964</v>
+        <v>0.07602498116094125</v>
       </c>
       <c r="E24">
-        <v>0.03041828456227158</v>
+        <v>0.05758314209197124</v>
       </c>
       <c r="F24">
-        <v>2.488158229306521</v>
+        <v>0.9605647615650099</v>
       </c>
       <c r="G24">
-        <v>0.0008235208233331459</v>
+        <v>0.8526992837232825</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.0006030376270989013</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.5752922757125987</v>
       </c>
       <c r="K24">
-        <v>2.052738262829536</v>
+        <v>0.6135560514374561</v>
       </c>
       <c r="L24">
-        <v>0.1952715725046659</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4228577340856319</v>
+        <v>1.425616540545207</v>
       </c>
       <c r="N24">
-        <v>2.418010576809138</v>
+        <v>0.2409842693907649</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.3230394200933873</v>
+      </c>
+      <c r="P24">
+        <v>0.9748123848703685</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.866659587265758</v>
+        <v>1.22649936161821</v>
       </c>
       <c r="C25">
-        <v>0.1441049250953483</v>
+        <v>0.1444133345924428</v>
       </c>
       <c r="D25">
-        <v>0.08910132765177003</v>
+        <v>0.06861657441491076</v>
       </c>
       <c r="E25">
-        <v>0.02922265848015648</v>
+        <v>0.05085236932748849</v>
       </c>
       <c r="F25">
-        <v>2.217019194506705</v>
+        <v>0.8663062245832123</v>
       </c>
       <c r="G25">
-        <v>0.0008361747989501455</v>
+        <v>0.7764339276526329</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.002567252637011519</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.5490793986375593</v>
       </c>
       <c r="K25">
-        <v>1.675848677992235</v>
+        <v>0.5854132210558234</v>
       </c>
       <c r="L25">
-        <v>0.1666058557741934</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3517861130555957</v>
+        <v>1.165767742188592</v>
       </c>
       <c r="N25">
-        <v>2.393336856933075</v>
+        <v>0.2023082478844387</v>
       </c>
       <c r="O25">
+        <v>0.2666279791513197</v>
+      </c>
+      <c r="P25">
+        <v>1.038608657433304</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_31/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02979891230504</v>
+        <v>0.9611670509705164</v>
       </c>
       <c r="C2">
-        <v>0.1256323118316232</v>
+        <v>0.1339882413934106</v>
       </c>
       <c r="D2">
-        <v>0.0630833323771256</v>
+        <v>0.06541448688850693</v>
       </c>
       <c r="E2">
-        <v>0.0459169861388613</v>
+        <v>0.0435035422012664</v>
       </c>
       <c r="F2">
-        <v>0.8007878634325465</v>
+        <v>0.7244453140497029</v>
       </c>
       <c r="G2">
-        <v>0.7239422384350576</v>
+        <v>0.6250301455992542</v>
       </c>
       <c r="H2">
-        <v>0.005012560994995197</v>
+        <v>0.003898260246701035</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.5318882682437334</v>
+        <v>0.5095052284991226</v>
       </c>
       <c r="K2">
-        <v>0.566954127781834</v>
+        <v>0.4912372273243548</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2239895481429706</v>
       </c>
       <c r="M2">
-        <v>0.9757722364556116</v>
+        <v>0.1490119737462727</v>
       </c>
       <c r="N2">
-        <v>0.1739319616703554</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.2253049515426184</v>
+        <v>0.9663594922384959</v>
       </c>
       <c r="P2">
-        <v>1.088694963398257</v>
+        <v>0.1857952125865054</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.2172736856986077</v>
+      </c>
+      <c r="R2">
+        <v>1.014316393727338</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8970883671321133</v>
+        <v>0.840490355988436</v>
       </c>
       <c r="C3">
-        <v>0.1129390203786897</v>
+        <v>0.1173823804332699</v>
       </c>
       <c r="D3">
-        <v>0.05928153279015191</v>
+        <v>0.06044507117367459</v>
       </c>
       <c r="E3">
-        <v>0.04256834010052302</v>
+        <v>0.04068330824023469</v>
       </c>
       <c r="F3">
-        <v>0.7585220712536156</v>
+        <v>0.6898519986881979</v>
       </c>
       <c r="G3">
-        <v>0.6903811232284767</v>
+        <v>0.6016881244530481</v>
       </c>
       <c r="H3">
-        <v>0.00723119805255576</v>
+        <v>0.005669145226189443</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.5214319246174313</v>
+        <v>0.498486792031656</v>
       </c>
       <c r="K3">
-        <v>0.5557195816020553</v>
+        <v>0.4852724103881449</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2266601214175132</v>
       </c>
       <c r="M3">
-        <v>0.8475607550715267</v>
+        <v>0.1431438133837126</v>
       </c>
       <c r="N3">
-        <v>0.1547216245282996</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.1973848301956664</v>
+        <v>0.8408395138867206</v>
       </c>
       <c r="P3">
-        <v>1.124472396598655</v>
+        <v>0.1660807987158179</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.1907198743456036</v>
+      </c>
+      <c r="R3">
+        <v>1.049734239963509</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8158199005912365</v>
+        <v>0.7663275822137905</v>
       </c>
       <c r="C4">
-        <v>0.1051469533757441</v>
+        <v>0.1072561542719228</v>
       </c>
       <c r="D4">
-        <v>0.05692076739067176</v>
+        <v>0.057379381655565</v>
       </c>
       <c r="E4">
-        <v>0.04050522594076256</v>
+        <v>0.03893976128913401</v>
       </c>
       <c r="F4">
-        <v>0.7335366013484972</v>
+        <v>0.6693410980388421</v>
       </c>
       <c r="G4">
-        <v>0.6706838647218802</v>
+        <v>0.5881906552655494</v>
       </c>
       <c r="H4">
-        <v>0.008851024185890871</v>
+        <v>0.00696672094964329</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.5155633755904461</v>
+        <v>0.4919472440248427</v>
       </c>
       <c r="K4">
-        <v>0.5494086869281283</v>
+        <v>0.4820103013470565</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2283478452851568</v>
       </c>
       <c r="M4">
-        <v>0.769025440110596</v>
+        <v>0.1403149776345884</v>
       </c>
       <c r="N4">
-        <v>0.1429236191923948</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.1802692646853643</v>
+        <v>0.7638283659189824</v>
       </c>
       <c r="P4">
-        <v>1.147310377282384</v>
+        <v>0.1539788098727968</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1744126071739025</v>
+      </c>
+      <c r="R4">
+        <v>1.072265455906818</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.782746466945639</v>
+        <v>0.7360818312717186</v>
       </c>
       <c r="C5">
-        <v>0.1019699152611864</v>
+        <v>0.1031447208668652</v>
       </c>
       <c r="D5">
-        <v>0.05595198111462807</v>
+        <v>0.05612628641748785</v>
       </c>
       <c r="E5">
-        <v>0.03966201011974668</v>
+        <v>0.0382256978117681</v>
       </c>
       <c r="F5">
-        <v>0.7235854554087027</v>
+        <v>0.6611564026321446</v>
       </c>
       <c r="G5">
-        <v>0.6628740990305317</v>
+        <v>0.5828890879616893</v>
       </c>
       <c r="H5">
-        <v>0.009573116465649976</v>
+        <v>0.007546147736099601</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5133054004012507</v>
+        <v>0.4893366948367373</v>
       </c>
       <c r="K5">
-        <v>0.5469787245267632</v>
+        <v>0.4807774142704595</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2290473888418205</v>
       </c>
       <c r="M5">
-        <v>0.737057393099974</v>
+        <v>0.1393538778771379</v>
       </c>
       <c r="N5">
-        <v>0.1381133882847507</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.1732995482777682</v>
+        <v>0.7324516240475276</v>
       </c>
       <c r="P5">
-        <v>1.156831016788001</v>
+        <v>0.1490464623746917</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.16776503098815</v>
+      </c>
+      <c r="R5">
+        <v>1.081640404169036</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7772570234666603</v>
+        <v>0.7310579105240436</v>
       </c>
       <c r="C6">
-        <v>0.1014422073287164</v>
+        <v>0.1024628616873855</v>
       </c>
       <c r="D6">
-        <v>0.05579070393308072</v>
+        <v>0.05591797653382713</v>
       </c>
       <c r="E6">
-        <v>0.0395218247873288</v>
+        <v>0.0381068975932628</v>
       </c>
       <c r="F6">
-        <v>0.7219466574419968</v>
+        <v>0.6598075506512373</v>
       </c>
       <c r="G6">
-        <v>0.6615900707149081</v>
+        <v>0.5820204551750265</v>
       </c>
       <c r="H6">
-        <v>0.009696684919803425</v>
+        <v>0.007645357149705934</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.5129383807083485</v>
+        <v>0.4889064303829542</v>
       </c>
       <c r="K6">
-        <v>0.5465836275599472</v>
+        <v>0.4805783995992492</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2291642510989149</v>
       </c>
       <c r="M6">
-        <v>0.7317509620877161</v>
+        <v>0.1392057794530928</v>
       </c>
       <c r="N6">
-        <v>0.1373144556223309</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.1721424814123189</v>
+        <v>0.7272416489244335</v>
       </c>
       <c r="P6">
-        <v>1.158424695930638</v>
+        <v>0.1482273691186791</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1666610302754847</v>
+      </c>
+      <c r="R6">
+        <v>1.083208668623412</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.815373695229141</v>
+        <v>0.7653464251578157</v>
       </c>
       <c r="C7">
-        <v>0.105104116372317</v>
+        <v>0.1068848371750448</v>
       </c>
       <c r="D7">
-        <v>0.05690772948690537</v>
+        <v>0.05747136401398478</v>
       </c>
       <c r="E7">
-        <v>0.04049386499660912</v>
+        <v>0.03895604444064205</v>
       </c>
       <c r="F7">
-        <v>0.7334014786613992</v>
+        <v>0.6679140219411153</v>
       </c>
       <c r="G7">
-        <v>0.6705776757660971</v>
+        <v>0.5911934531445837</v>
       </c>
       <c r="H7">
-        <v>0.008860515124767002</v>
+        <v>0.006981309295797294</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.5155323899085147</v>
+        <v>0.4864584535941958</v>
       </c>
       <c r="K7">
-        <v>0.5493753491137809</v>
+        <v>0.481267007751935</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2280247710721</v>
       </c>
       <c r="M7">
-        <v>0.7685941776923926</v>
+        <v>0.1400873114631231</v>
       </c>
       <c r="N7">
-        <v>0.1428587589035217</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.1801752507868954</v>
+        <v>0.7623379935200774</v>
       </c>
       <c r="P7">
-        <v>1.147437915897836</v>
+        <v>0.1538637772714324</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1742190996181847</v>
+      </c>
+      <c r="R7">
+        <v>1.071848281821969</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9839890258053003</v>
+        <v>0.9176440706467304</v>
       </c>
       <c r="C8">
-        <v>0.121254001373643</v>
+        <v>0.1271765344849314</v>
       </c>
       <c r="D8">
-        <v>0.06177789427620439</v>
+        <v>0.06407621499128879</v>
       </c>
       <c r="E8">
-        <v>0.0447633932172451</v>
+        <v>0.04262109398595371</v>
       </c>
       <c r="F8">
-        <v>0.7860065905602056</v>
+        <v>0.7080028344907845</v>
       </c>
       <c r="G8">
-        <v>0.7121744329110271</v>
+        <v>0.6270854919954303</v>
       </c>
       <c r="H8">
-        <v>0.005722390015666656</v>
+        <v>0.004481169481841241</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.5281651972614867</v>
+        <v>0.4878230865528508</v>
       </c>
       <c r="K8">
-        <v>0.5629549734169004</v>
+        <v>0.4867129413982099</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2238838342492357</v>
       </c>
       <c r="M8">
-        <v>0.9315190724604179</v>
+        <v>0.1460494677221753</v>
       </c>
       <c r="N8">
-        <v>0.1673077327864831</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.2156712042701443</v>
+        <v>0.9194799212753253</v>
       </c>
       <c r="P8">
-        <v>1.100847330999528</v>
+        <v>0.1788360132967313</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.2077693316175022</v>
+      </c>
+      <c r="R8">
+        <v>1.024692070322434</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.316865441899267</v>
+        <v>1.218196362055693</v>
       </c>
       <c r="C9">
-        <v>0.15303998567218</v>
+        <v>0.1687830920376996</v>
       </c>
       <c r="D9">
-        <v>0.07112388828423377</v>
+        <v>0.07652603763058607</v>
       </c>
       <c r="E9">
-        <v>0.05311414211350751</v>
+        <v>0.0496453996576669</v>
       </c>
       <c r="F9">
-        <v>0.897414243607912</v>
+        <v>0.7976487519780449</v>
       </c>
       <c r="G9">
-        <v>0.8015173630957833</v>
+        <v>0.6933513346504867</v>
       </c>
       <c r="H9">
-        <v>0.001741869377876681</v>
+        <v>0.001323093928741859</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5575646622178425</v>
+        <v>0.5118302199357601</v>
       </c>
       <c r="K9">
-        <v>0.5945228444306991</v>
+        <v>0.5034068631058375</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.217372688942941</v>
       </c>
       <c r="M9">
-        <v>1.253052539366479</v>
+        <v>0.1647995655160628</v>
       </c>
       <c r="N9">
-        <v>0.2153148088582242</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.2855906071966743</v>
+        <v>1.232402789465681</v>
       </c>
       <c r="P9">
-        <v>1.01662002470367</v>
+        <v>0.2280709337260021</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.273984953440042</v>
+      </c>
+      <c r="R9">
+        <v>0.9406045584463101</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.554493350550956</v>
+        <v>1.42856869308855</v>
       </c>
       <c r="C10">
-        <v>0.1786117659139137</v>
+        <v>0.1998911999024955</v>
       </c>
       <c r="D10">
-        <v>0.07870222693637174</v>
+        <v>0.08717326342238607</v>
       </c>
       <c r="E10">
-        <v>0.05694129126657721</v>
+        <v>0.0528276424942753</v>
       </c>
       <c r="F10">
-        <v>0.9744101977931479</v>
+        <v>0.8514078483569847</v>
       </c>
       <c r="G10">
-        <v>0.8610934904719016</v>
+        <v>0.7559757111787775</v>
       </c>
       <c r="H10">
-        <v>0.0005661977572097854</v>
+        <v>0.0004629410809497969</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.5765299435808799</v>
+        <v>0.4962355502569267</v>
       </c>
       <c r="K10">
-        <v>0.612893106068789</v>
+        <v>0.5075134859706196</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2090867983865117</v>
       </c>
       <c r="M10">
-        <v>1.488639166126404</v>
+        <v>0.1784571088882352</v>
       </c>
       <c r="N10">
-        <v>0.2390391824450546</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.3303311474142419</v>
+        <v>1.454625552614402</v>
       </c>
       <c r="P10">
-        <v>0.9537120202014933</v>
+        <v>0.2520295664230048</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.3154808470891481</v>
+      </c>
+      <c r="R10">
+        <v>0.8771881545888967</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.583877258445511</v>
+        <v>1.45384988699945</v>
       </c>
       <c r="C11">
-        <v>0.2089157485440012</v>
+        <v>0.2281404275647816</v>
       </c>
       <c r="D11">
-        <v>0.08994159664915458</v>
+        <v>0.1013809836770747</v>
       </c>
       <c r="E11">
-        <v>0.04327630726882781</v>
+        <v>0.04062364092163673</v>
       </c>
       <c r="F11">
-        <v>0.9184143075175228</v>
+        <v>0.787636765971385</v>
       </c>
       <c r="G11">
-        <v>0.7904217256208739</v>
+        <v>0.7333327145706932</v>
       </c>
       <c r="H11">
-        <v>0.01911523658284864</v>
+        <v>0.01904522149539289</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.5361392899592943</v>
+        <v>0.4081710888457053</v>
       </c>
       <c r="K11">
-        <v>0.5525333830289085</v>
+        <v>0.449824431184318</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.184624645667899</v>
       </c>
       <c r="M11">
-        <v>1.572436134267917</v>
+        <v>0.1609394818644212</v>
       </c>
       <c r="N11">
-        <v>0.1599327145996625</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.2920817676397505</v>
+        <v>1.523620176740167</v>
       </c>
       <c r="P11">
-        <v>0.8834841420078234</v>
+        <v>0.169534811797341</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.2773252648309352</v>
+      </c>
+      <c r="R11">
+        <v>0.8241129848096769</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.557312136623466</v>
+        <v>1.432026605423147</v>
       </c>
       <c r="C12">
-        <v>0.2307823286683828</v>
+        <v>0.2476632206082314</v>
       </c>
       <c r="D12">
-        <v>0.098667896850273</v>
+        <v>0.1115534153999178</v>
       </c>
       <c r="E12">
-        <v>0.03760941332931123</v>
+        <v>0.03591158573389258</v>
       </c>
       <c r="F12">
-        <v>0.8552753852537904</v>
+        <v>0.7280691161415902</v>
       </c>
       <c r="G12">
-        <v>0.7198226272953008</v>
+        <v>0.68893813505899</v>
       </c>
       <c r="H12">
-        <v>0.05786766681186606</v>
+        <v>0.05779644309194509</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4986343062830088</v>
+        <v>0.3601529636243299</v>
       </c>
       <c r="K12">
-        <v>0.4999333861858801</v>
+        <v>0.4052450345984866</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1679866733465865</v>
       </c>
       <c r="M12">
-        <v>1.592720601567237</v>
+        <v>0.1446031148052676</v>
       </c>
       <c r="N12">
-        <v>0.1040196314545909</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.2526497177911367</v>
+        <v>1.538301826173978</v>
       </c>
       <c r="P12">
-        <v>0.8457457135057602</v>
+        <v>0.1111703720245032</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2390771057965004</v>
+      </c>
+      <c r="R12">
+        <v>0.802722822345761</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.486296131162078</v>
+        <v>1.37423649615593</v>
       </c>
       <c r="C13">
-        <v>0.2471270555089689</v>
+        <v>0.262578051643743</v>
       </c>
       <c r="D13">
-        <v>0.1058450213670952</v>
+        <v>0.1184822590708308</v>
       </c>
       <c r="E13">
-        <v>0.03764430857574919</v>
+        <v>0.03674241215952545</v>
       </c>
       <c r="F13">
-        <v>0.7828098396229137</v>
+        <v>0.6703011795273781</v>
       </c>
       <c r="G13">
-        <v>0.6450406529745436</v>
+        <v>0.6185513016668978</v>
       </c>
       <c r="H13">
-        <v>0.1138025325378607</v>
+        <v>0.1136945728776624</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4610457654864319</v>
+        <v>0.3416947499541152</v>
       </c>
       <c r="K13">
-        <v>0.4501289388185157</v>
+        <v>0.3685867400372622</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1558457935962316</v>
       </c>
       <c r="M13">
-        <v>1.564998497068018</v>
+        <v>0.1289509253337471</v>
       </c>
       <c r="N13">
-        <v>0.06286686187505097</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.2103148904157308</v>
+        <v>1.514792077449812</v>
       </c>
       <c r="P13">
-        <v>0.8297078520077548</v>
+        <v>0.06813012782976102</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.1989089577664984</v>
+      </c>
+      <c r="R13">
+        <v>0.8012480416650476</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.416857722384236</v>
+        <v>1.317612434511886</v>
       </c>
       <c r="C14">
-        <v>0.2561319134427151</v>
+        <v>0.2710587479604385</v>
       </c>
       <c r="D14">
-        <v>0.1101969022670701</v>
+        <v>0.1218121035068194</v>
       </c>
       <c r="E14">
-        <v>0.04107843400349598</v>
+        <v>0.04073843153556123</v>
       </c>
       <c r="F14">
-        <v>0.7284072601084119</v>
+        <v>0.630431738741116</v>
       </c>
       <c r="G14">
-        <v>0.5914999360578861</v>
+        <v>0.5598822857566006</v>
       </c>
       <c r="H14">
-        <v>0.1633418257619041</v>
+        <v>0.1631841184266989</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4350004459017072</v>
+        <v>0.3395346777361254</v>
       </c>
       <c r="K14">
-        <v>0.4171015192326202</v>
+        <v>0.3463653463141583</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.149094682605778</v>
       </c>
       <c r="M14">
-        <v>1.523969060858491</v>
+        <v>0.1184966207646383</v>
       </c>
       <c r="N14">
-        <v>0.04306451337156858</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.1799901717430821</v>
+        <v>1.480961161310944</v>
       </c>
       <c r="P14">
-        <v>0.8290982249600338</v>
+        <v>0.04724480548343024</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.1704209602569975</v>
+      </c>
+      <c r="R14">
+        <v>0.8086773547376751</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.390745428495393</v>
+        <v>1.296205388155926</v>
       </c>
       <c r="C15">
-        <v>0.2568797118669153</v>
+        <v>0.2719235094319288</v>
       </c>
       <c r="D15">
-        <v>0.1107942751933493</v>
+        <v>0.1218050694108754</v>
       </c>
       <c r="E15">
-        <v>0.04224069148435028</v>
+        <v>0.04207561673150195</v>
       </c>
       <c r="F15">
-        <v>0.7131982758144559</v>
+        <v>0.6206314879252162</v>
       </c>
       <c r="G15">
-        <v>0.5774336700340967</v>
+        <v>0.5413834688124552</v>
       </c>
       <c r="H15">
-        <v>0.1759446317200712</v>
+        <v>0.1757609518205641</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4285940341280678</v>
+        <v>0.3435240910824859</v>
       </c>
       <c r="K15">
-        <v>0.4094042464353009</v>
+        <v>0.3420688530544211</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1480683742286217</v>
       </c>
       <c r="M15">
-        <v>1.503857067795678</v>
+        <v>0.1160164224861262</v>
       </c>
       <c r="N15">
-        <v>0.03936824861320609</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1717665863280082</v>
+        <v>1.464424787954897</v>
       </c>
       <c r="P15">
-        <v>0.8323690602091398</v>
+        <v>0.04334903534308765</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.1628002397683943</v>
+      </c>
+      <c r="R15">
+        <v>0.8131325022444607</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.304374140517666</v>
+        <v>1.223750014008345</v>
       </c>
       <c r="C16">
-        <v>0.2417826452260385</v>
+        <v>0.2585396128580157</v>
       </c>
       <c r="D16">
-        <v>0.1057503219140443</v>
+        <v>0.1138745041331148</v>
       </c>
       <c r="E16">
-        <v>0.04051426441944983</v>
+        <v>0.0406716895191952</v>
       </c>
       <c r="F16">
-        <v>0.695003878355088</v>
+        <v>0.6187359513236643</v>
       </c>
       <c r="G16">
-        <v>0.5672830182022892</v>
+        <v>0.5053632183546881</v>
       </c>
       <c r="H16">
-        <v>0.1637352152993969</v>
+        <v>0.1634018130995543</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.4280195583354214</v>
+        <v>0.3844498697681047</v>
       </c>
       <c r="K16">
-        <v>0.4117092480950504</v>
+        <v>0.3515172539393241</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1537666266404543</v>
       </c>
       <c r="M16">
-        <v>1.408063995942115</v>
+        <v>0.1160400177108158</v>
       </c>
       <c r="N16">
-        <v>0.03886955370234801</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.1624044258119604</v>
+        <v>1.383802195566886</v>
       </c>
       <c r="P16">
-        <v>0.8598925282931535</v>
+        <v>0.04334694114319326</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.1549045951550241</v>
+      </c>
+      <c r="R16">
+        <v>0.8354896362831212</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.274943455982992</v>
+        <v>1.197362700666076</v>
       </c>
       <c r="C17">
-        <v>0.2254424896041911</v>
+        <v>0.2429876752034943</v>
       </c>
       <c r="D17">
-        <v>0.09957075198215648</v>
+        <v>0.1064148293838727</v>
       </c>
       <c r="E17">
-        <v>0.03679871470784679</v>
+        <v>0.0367685008627161</v>
       </c>
       <c r="F17">
-        <v>0.7099478532486287</v>
+        <v>0.6372789919829103</v>
       </c>
       <c r="G17">
-        <v>0.5878151843020873</v>
+        <v>0.5118256749973682</v>
       </c>
       <c r="H17">
-        <v>0.1262787456704615</v>
+        <v>0.1258524737343691</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.4414122920154711</v>
+        <v>0.4145216097552691</v>
       </c>
       <c r="K17">
-        <v>0.4308630095296664</v>
+        <v>0.3702395798069702</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1619947616991269</v>
       </c>
       <c r="M17">
-        <v>1.356575151665965</v>
+        <v>0.1211909392891144</v>
       </c>
       <c r="N17">
-        <v>0.04735607937656994</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.1708938975795675</v>
+        <v>1.338269199590542</v>
       </c>
       <c r="P17">
-        <v>0.8812758609355089</v>
+        <v>0.05278779399840516</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.1635276345277141</v>
+      </c>
+      <c r="R17">
+        <v>0.8502510247076476</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.290756640143144</v>
+        <v>1.208668886086599</v>
       </c>
       <c r="C18">
-        <v>0.206844776492062</v>
+        <v>0.225215479722209</v>
       </c>
       <c r="D18">
-        <v>0.09206310032932663</v>
+        <v>0.09842542683930589</v>
       </c>
       <c r="E18">
-        <v>0.03416096624833065</v>
+        <v>0.03344664101157147</v>
       </c>
       <c r="F18">
-        <v>0.7554963770166054</v>
+        <v>0.6784654799135694</v>
       </c>
       <c r="G18">
-        <v>0.6381138123060737</v>
+        <v>0.549402644556281</v>
       </c>
       <c r="H18">
-        <v>0.0735000926343119</v>
+        <v>0.0730535109814312</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.4687543792631601</v>
+        <v>0.4459515068491555</v>
       </c>
       <c r="K18">
-        <v>0.4679574943436791</v>
+        <v>0.4013341918660132</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1742971946147094</v>
       </c>
       <c r="M18">
-        <v>1.33690151704343</v>
+        <v>0.1319452221758937</v>
       </c>
       <c r="N18">
-        <v>0.07243161385165564</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1970421387960855</v>
+        <v>1.320009473807886</v>
       </c>
       <c r="P18">
-        <v>0.9037615894123991</v>
+        <v>0.07948489681207604</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.1888403252785089</v>
+      </c>
+      <c r="R18">
+        <v>0.8633391398653316</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.341928947472951</v>
+        <v>1.25002812181549</v>
       </c>
       <c r="C19">
-        <v>0.1887109744840103</v>
+        <v>0.2080241537460523</v>
       </c>
       <c r="D19">
-        <v>0.08449708187121985</v>
+        <v>0.09080416856178886</v>
       </c>
       <c r="E19">
-        <v>0.03735150586164515</v>
+        <v>0.03551167920518816</v>
       </c>
       <c r="F19">
-        <v>0.8236829442471816</v>
+        <v>0.7368594499545225</v>
       </c>
       <c r="G19">
-        <v>0.7109411643986903</v>
+        <v>0.6086271486988153</v>
       </c>
       <c r="H19">
-        <v>0.02795121508070508</v>
+        <v>0.02756326636855277</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.5062831614979331</v>
+        <v>0.4800986421068245</v>
       </c>
       <c r="K19">
-        <v>0.5190590240132096</v>
+        <v>0.4422884913239216</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1897551537638549</v>
       </c>
       <c r="M19">
-        <v>1.344046591847757</v>
+        <v>0.1472393607972542</v>
       </c>
       <c r="N19">
-        <v>0.1210170063841147</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.237769981938122</v>
+        <v>1.325892425073476</v>
       </c>
       <c r="P19">
-        <v>0.9313310169198861</v>
+        <v>0.1303061866694932</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2279839759956204</v>
+      </c>
+      <c r="R19">
+        <v>0.878599960448005</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.491571022047708</v>
+        <v>1.37512832101271</v>
       </c>
       <c r="C20">
-        <v>0.1719503698807046</v>
+        <v>0.1929680848552664</v>
       </c>
       <c r="D20">
-        <v>0.07675045134516978</v>
+        <v>0.08397424519495189</v>
       </c>
       <c r="E20">
-        <v>0.05582838421737257</v>
+        <v>0.05180026350025813</v>
       </c>
       <c r="F20">
-        <v>0.9533140702348533</v>
+        <v>0.8412599806706851</v>
       </c>
       <c r="G20">
-        <v>0.8445571783599348</v>
+        <v>0.727381925829846</v>
       </c>
       <c r="H20">
-        <v>0.0007579816870997291</v>
+        <v>0.0005873245266592164</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.5710749410545759</v>
+        <v>0.5182734297859355</v>
       </c>
       <c r="K20">
-        <v>0.6074744482436358</v>
+        <v>0.5084747575416486</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.212000124339017</v>
       </c>
       <c r="M20">
-        <v>1.426501995664012</v>
+        <v>0.1755004907962032</v>
       </c>
       <c r="N20">
-        <v>0.2323077874467714</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.3182768924745076</v>
+        <v>1.400069618725041</v>
       </c>
       <c r="P20">
-        <v>0.9696142559139354</v>
+        <v>0.2453924135104444</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.3046868580810056</v>
+      </c>
+      <c r="R20">
+        <v>0.894774203615146</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.68877580012267</v>
+        <v>1.536814709405292</v>
       </c>
       <c r="C21">
-        <v>0.18861488893684</v>
+        <v>0.2077291056996273</v>
       </c>
       <c r="D21">
-        <v>0.08125447753906911</v>
+        <v>0.09317184906716136</v>
       </c>
       <c r="E21">
-        <v>0.06242419136127353</v>
+        <v>0.05812161683697958</v>
       </c>
       <c r="F21">
-        <v>1.031136256581618</v>
+        <v>0.8731597349928961</v>
       </c>
       <c r="G21">
-        <v>0.9102494623491992</v>
+        <v>0.8551008766389288</v>
       </c>
       <c r="H21">
-        <v>4.317090894723208E-05</v>
+        <v>3.02746997684622E-05</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.5957532916829251</v>
+        <v>0.4250667064403189</v>
       </c>
       <c r="K21">
-        <v>0.6355294332388155</v>
+        <v>0.5091875258580316</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2048003560542</v>
       </c>
       <c r="M21">
-        <v>1.61237100463066</v>
+        <v>0.1858002368839067</v>
       </c>
       <c r="N21">
-        <v>0.2687082581265372</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.3635053762012674</v>
+        <v>1.553628602116021</v>
       </c>
       <c r="P21">
-        <v>0.9318091575546852</v>
+        <v>0.2816375860131757</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3448237278184862</v>
+      </c>
+      <c r="R21">
+        <v>0.8454658217647903</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.813706221241858</v>
+        <v>1.637828664806818</v>
       </c>
       <c r="C22">
-        <v>0.2006095063882185</v>
+        <v>0.2179704253477439</v>
       </c>
       <c r="D22">
-        <v>0.0845987623880049</v>
+        <v>0.09990998912716265</v>
       </c>
       <c r="E22">
-        <v>0.06556083934373902</v>
+        <v>0.06126503248234094</v>
       </c>
       <c r="F22">
-        <v>1.077888309304853</v>
+        <v>0.8882844588063392</v>
       </c>
       <c r="G22">
-        <v>0.9485525869860538</v>
+        <v>0.9437563079869591</v>
       </c>
       <c r="H22">
-        <v>2.282422693111741E-05</v>
+        <v>1.782510756886957E-05</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.6096197230979641</v>
+        <v>0.3658535798933542</v>
       </c>
       <c r="K22">
-        <v>0.6504253063533483</v>
+        <v>0.5058170266279518</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1988572163674256</v>
       </c>
       <c r="M22">
-        <v>1.733126016329948</v>
+        <v>0.1913402176412689</v>
       </c>
       <c r="N22">
-        <v>0.2866081836024961</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.3896352753509404</v>
+        <v>1.651121811492629</v>
       </c>
       <c r="P22">
-        <v>0.9051286349474026</v>
+        <v>0.2991566806533115</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3675145277930483</v>
+      </c>
+      <c r="R22">
+        <v>0.8123582960790561</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.746964641068672</v>
+        <v>1.585512998944893</v>
       </c>
       <c r="C23">
-        <v>0.1941981298421354</v>
+        <v>0.2133681312365496</v>
       </c>
       <c r="D23">
-        <v>0.08281547829754032</v>
+        <v>0.09596652788049198</v>
       </c>
       <c r="E23">
-        <v>0.06388424523575154</v>
+        <v>0.05949874644540643</v>
       </c>
       <c r="F23">
-        <v>1.052805490115148</v>
+        <v>0.8835966172892569</v>
       </c>
       <c r="G23">
-        <v>0.9279862462258421</v>
+        <v>0.8867382581257175</v>
       </c>
       <c r="H23">
-        <v>1.587520172874335E-06</v>
+        <v>7.73806226206375E-07</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.6021520819661816</v>
+        <v>0.4071438995958943</v>
       </c>
       <c r="K23">
-        <v>0.6424027815503877</v>
+        <v>0.5094085474103096</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2026252695461181</v>
       </c>
       <c r="M23">
-        <v>1.668610827206976</v>
+        <v>0.1890957789512164</v>
       </c>
       <c r="N23">
-        <v>0.2770472555446446</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.375678467152845</v>
+        <v>1.60204699621579</v>
       </c>
       <c r="P23">
-        <v>0.9192779610939752</v>
+        <v>0.2899260700480966</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3556931748070511</v>
+      </c>
+      <c r="R23">
+        <v>0.8308730119035399</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.495501877103976</v>
+        <v>1.37820791143119</v>
       </c>
       <c r="C24">
-        <v>0.1701077233069554</v>
+        <v>0.1911453556027141</v>
       </c>
       <c r="D24">
-        <v>0.07602498116094125</v>
+        <v>0.08318395222423192</v>
       </c>
       <c r="E24">
-        <v>0.05758314209197124</v>
+        <v>0.0533971044306103</v>
       </c>
       <c r="F24">
-        <v>0.9605647615650099</v>
+        <v>0.8476299703531964</v>
       </c>
       <c r="G24">
-        <v>0.8526992837232825</v>
+        <v>0.7335830717520508</v>
       </c>
       <c r="H24">
-        <v>0.0006030376270989013</v>
+        <v>0.0004381962692692198</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.5752922757125987</v>
+        <v>0.5227827405831107</v>
       </c>
       <c r="K24">
-        <v>0.6135560514374561</v>
+        <v>0.5134616432279557</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2139462450749967</v>
       </c>
       <c r="M24">
-        <v>1.425616540545207</v>
+        <v>0.1772857698527126</v>
       </c>
       <c r="N24">
-        <v>0.2409842693907649</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.3230394200933873</v>
+        <v>1.399246659956077</v>
       </c>
       <c r="P24">
-        <v>0.9748123848703685</v>
+        <v>0.254364550835092</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.3092800803060314</v>
+      </c>
+      <c r="R24">
+        <v>0.8983274237189143</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.22649936161821</v>
+        <v>1.137691473590536</v>
       </c>
       <c r="C25">
-        <v>0.1444133345924428</v>
+        <v>0.1579072896160767</v>
       </c>
       <c r="D25">
-        <v>0.06861657441491076</v>
+        <v>0.07300313246692269</v>
       </c>
       <c r="E25">
-        <v>0.05085236932748849</v>
+        <v>0.0477099415991713</v>
       </c>
       <c r="F25">
-        <v>0.8663062245832123</v>
+        <v>0.7745250276723823</v>
       </c>
       <c r="G25">
-        <v>0.7764339276526329</v>
+        <v>0.6701343215053299</v>
       </c>
       <c r="H25">
-        <v>0.002567252637011519</v>
+        <v>0.00196852235557643</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5490793986375593</v>
+        <v>0.5126585794549356</v>
       </c>
       <c r="K25">
-        <v>0.5854132210558234</v>
+        <v>0.4995092656182436</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2194852199158639</v>
       </c>
       <c r="M25">
-        <v>1.165767742188592</v>
+        <v>0.1593972869389155</v>
       </c>
       <c r="N25">
-        <v>0.2023082478844387</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.2666279791513197</v>
+        <v>1.149145055400624</v>
       </c>
       <c r="P25">
-        <v>1.038608657433304</v>
+        <v>0.2148005520418224</v>
       </c>
       <c r="Q25">
+        <v>0.2562073074117741</v>
+      </c>
+      <c r="R25">
+        <v>0.9632951904018832</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
